--- a/LISTE TS STIC INFO 3.xlsx
+++ b/LISTE TS STIC INFO 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\GitHub\Liste-TS-INFO-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faker#Staz\Documents\GitHub\Liste-TS-INFO-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D990BEEA-62EB-443B-9CE1-DE4531EB9C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC2953C-1265-4894-8254-C91A7492E658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS STIC INFO 2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t xml:space="preserve">ECOLE SUPERIEURE D'INDUSTRIE                                                                                                                    </t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>O777622222</t>
+  </si>
+  <si>
+    <t>O566969021</t>
+  </si>
+  <si>
+    <t>O777534461</t>
+  </si>
+  <si>
+    <t>O554426090</t>
   </si>
 </sst>
 </file>
@@ -989,22 +998,22 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1026,7 @@
       <c r="H1" s="27"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>66</v>
       </c>
@@ -1030,7 +1039,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>64</v>
       </c>
@@ -1047,7 +1056,7 @@
       </c>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
@@ -1060,7 +1069,7 @@
       <c r="H4" s="43"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
@@ -1077,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1103,7 @@
       <c r="H6" s="54"/>
       <c r="I6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1111,7 +1120,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1128,7 +1137,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1145,7 +1154,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1162,7 +1171,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1179,7 +1188,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1196,7 +1205,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1213,7 +1222,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1230,7 +1239,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1245,9 +1254,11 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1264,7 +1275,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1281,7 +1292,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1296,9 +1307,11 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1315,7 +1328,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1332,7 +1345,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1349,7 +1362,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1366,7 +1379,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1383,7 +1396,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -1400,7 +1413,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -1417,7 +1430,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -1436,7 +1449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -1453,7 +1466,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -1489,7 +1502,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -1506,7 +1519,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -1523,7 +1536,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -1540,7 +1553,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -1559,7 +1572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>28</v>
       </c>
@@ -1574,9 +1587,11 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="17" t="s">
         <v>31</v>
       </c>
@@ -1587,7 +1602,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -1598,7 +1613,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -1606,11 +1621,11 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
     </row>
@@ -1649,7 +1664,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LISTE TS STIC INFO 3.xlsx
+++ b/LISTE TS STIC INFO 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\Classe\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\GitHub\Liste-TS-INFO-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AF9057-59B2-45CF-9E90-07234D320DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D990BEEA-62EB-443B-9CE1-DE4531EB9C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS STIC INFO 2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t xml:space="preserve">ECOLE SUPERIEURE D'INDUSTRIE                                                                                                                    </t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>18INP00307</t>
+  </si>
+  <si>
+    <t>O595013528</t>
+  </si>
+  <si>
+    <t>O565656429</t>
+  </si>
+  <si>
+    <t>O777622222</t>
   </si>
 </sst>
 </file>
@@ -981,7 +990,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1432,9 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1457,7 +1468,9 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1542,7 +1555,9 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">

--- a/LISTE TS STIC INFO 3.xlsx
+++ b/LISTE TS STIC INFO 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faker#Staz\Documents\GitHub\Liste-TS-INFO-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\GitHub\Liste-TS-INFO-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC2953C-1265-4894-8254-C91A7492E658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C89275-5733-4E5C-BD71-A89F6F1D536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS STIC INFO 2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t xml:space="preserve">ECOLE SUPERIEURE D'INDUSTRIE                                                                                                                    </t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>O554426090</t>
+  </si>
+  <si>
+    <t>O788420962</t>
+  </si>
+  <si>
+    <t>O564389915</t>
+  </si>
+  <si>
+    <t>O574061929</t>
   </si>
 </sst>
 </file>
@@ -998,22 +1007,22 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1035,7 @@
       <c r="H1" s="27"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>66</v>
       </c>
@@ -1039,7 +1048,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>64</v>
       </c>
@@ -1056,7 +1065,7 @@
       </c>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
@@ -1069,7 +1078,7 @@
       <c r="H4" s="43"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
@@ -1086,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1112,7 @@
       <c r="H6" s="54"/>
       <c r="I6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1120,7 +1129,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1137,7 +1146,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1154,7 +1163,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1171,7 +1180,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1186,9 +1195,11 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1205,7 +1216,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1222,7 +1233,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1239,7 +1250,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1273,9 +1284,11 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1292,7 +1305,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1311,7 +1324,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1328,7 +1341,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1345,7 +1358,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1362,7 +1375,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1379,7 +1392,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1396,7 +1409,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -1413,7 +1426,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -1430,7 +1443,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -1449,7 +1462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -1464,9 +1477,11 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -1485,7 +1500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -1502,7 +1517,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -1519,7 +1534,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -1536,7 +1551,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -1553,7 +1568,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>28</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C35" s="17" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1617,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -1613,7 +1628,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -1621,11 +1636,11 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
     </row>
@@ -1664,7 +1679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LISTE TS STIC INFO 3.xlsx
+++ b/LISTE TS STIC INFO 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\GitHub\Liste-TS-INFO-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C89275-5733-4E5C-BD71-A89F6F1D536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB811C-8782-4B65-BE18-5EE5EFF9B23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t xml:space="preserve">ECOLE SUPERIEURE D'INDUSTRIE                                                                                                                    </t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>O574061929</t>
+  </si>
+  <si>
+    <t>O595072898</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1011,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1427,9 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">

--- a/LISTE TS STIC INFO 3.xlsx
+++ b/LISTE TS STIC INFO 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\Classe\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App-Dev\ADUTI\Liste-TS-INFO-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AF9057-59B2-45CF-9E90-07234D320DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838DC6B8-CAC5-4090-93C0-6A71D1729D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS STIC INFO 2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t xml:space="preserve">ECOLE SUPERIEURE D'INDUSTRIE                                                                                                                    </t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>18INP00307</t>
+  </si>
+  <si>
+    <t>0595072898</t>
+  </si>
+  <si>
+    <t>0748125178</t>
+  </si>
+  <si>
+    <t>0584649825</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +607,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,95 +992,95 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="41" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1082,10 +1094,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="55"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1102,7 +1114,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1119,7 +1131,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1136,7 +1148,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1153,7 +1165,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1170,7 +1182,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1187,7 +1199,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1204,7 +1216,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1221,7 +1233,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1238,7 +1250,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1255,7 +1267,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1272,7 +1284,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1289,7 +1301,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1304,9 +1316,11 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1323,7 +1337,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1340,7 +1354,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1357,7 +1371,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1374,7 +1388,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -1389,9 +1403,11 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -1408,7 +1424,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -1425,7 +1441,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -1442,7 +1458,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -1459,7 +1475,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -1476,7 +1492,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -1493,7 +1509,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -1508,9 +1524,11 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -1527,7 +1545,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -1544,7 +1562,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>28</v>
       </c>
@@ -1561,7 +1579,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="17" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1590,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -1583,21 +1601,21 @@
       <c r="H36" s="10"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:A33">
@@ -1625,6 +1643,9 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I24" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1634,7 +1655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LISTE TS STIC INFO 3.xlsx
+++ b/LISTE TS STIC INFO 3.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\Classe\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-\Documents\GitHub\Liste-TS-INFO-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AF9057-59B2-45CF-9E90-07234D320DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5518C54F-EFC8-464A-B985-3630F39FE422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS STIC INFO 2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t xml:space="preserve">ECOLE SUPERIEURE D'INDUSTRIE                                                                                                                    </t>
   </si>
@@ -295,6 +305,12 @@
   </si>
   <si>
     <t>18INP00307</t>
+  </si>
+  <si>
+    <t>0768027500</t>
+  </si>
+  <si>
+    <t>0576827515</t>
   </si>
 </sst>
 </file>
@@ -531,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +709,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,22 +999,22 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1027,7 @@
       <c r="H1" s="27"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>66</v>
       </c>
@@ -1021,7 +1040,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>64</v>
       </c>
@@ -1038,7 +1057,7 @@
       </c>
       <c r="I3" s="42"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
@@ -1051,7 +1070,7 @@
       <c r="H4" s="43"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="50"/>
@@ -1068,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1104,7 @@
       <c r="H6" s="54"/>
       <c r="I6" s="56"/>
     </row>
-    <row r="7" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1100,9 +1119,11 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1119,7 +1140,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1134,9 +1155,9 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1153,7 +1174,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1170,7 +1191,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1187,7 +1208,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1204,7 +1225,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1221,7 +1242,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1238,7 +1259,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1255,7 +1276,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1270,9 +1291,11 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1289,7 +1312,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1306,7 +1329,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1323,7 +1346,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1340,7 +1363,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1357,7 +1380,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1374,7 +1397,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -1391,7 +1414,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -1408,7 +1431,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -1425,7 +1448,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -1442,7 +1465,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -1459,7 +1482,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -1476,7 +1499,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -1493,7 +1516,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -1510,7 +1533,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -1527,7 +1550,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -1544,7 +1567,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>28</v>
       </c>
@@ -1561,7 +1584,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="17" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1595,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="18" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1606,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
@@ -1591,11 +1614,11 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
     </row>
@@ -1634,7 +1657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LISTE TS STIC INFO 3.xlsx
+++ b/LISTE TS STIC INFO 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N'Guessan Ange Roddy\Documents\Classe\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\ProjetsScripts\Web\Liste-TS-INFO-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AF9057-59B2-45CF-9E90-07234D320DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F533FC3-952E-498C-8DB4-1BFFFFA041D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS STIC INFO 2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t xml:space="preserve">ECOLE SUPERIEURE D'INDUSTRIE                                                                                                                    </t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>18INP00307</t>
+  </si>
+  <si>
+    <t>0545540309</t>
+  </si>
+  <si>
+    <t>0554962163</t>
+  </si>
+  <si>
+    <t>0170131390</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,9 +582,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -693,6 +699,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -996,75 +1008,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="41" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="42"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1082,8 +1094,8 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1100,7 +1112,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1117,7 +1129,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1134,7 +1146,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1151,7 +1163,9 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="56" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1168,7 +1182,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1185,7 +1199,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1202,7 +1216,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1219,7 +1233,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1236,7 +1250,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1245,7 +1259,7 @@
       <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8"/>
@@ -1253,7 +1267,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -1270,7 +1284,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -1287,7 +1301,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -1304,7 +1318,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1321,9 +1335,9 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" s="23" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="1:9" s="22" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1338,7 +1352,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -1355,7 +1369,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1372,16 +1386,16 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>18</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="8"/>
@@ -1389,7 +1403,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1406,7 +1420,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -1423,7 +1437,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -1432,7 +1446,7 @@
       <c r="B27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="8"/>
@@ -1440,7 +1454,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -1449,7 +1463,7 @@
       <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="8"/>
@@ -1457,7 +1471,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -1466,7 +1480,7 @@
       <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="8"/>
@@ -1474,7 +1488,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -1483,7 +1497,7 @@
       <c r="B30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="8"/>
@@ -1491,7 +1505,9 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="56" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -1500,7 +1516,7 @@
       <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="8"/>
@@ -1508,7 +1524,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1517,7 +1533,7 @@
       <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="8"/>
@@ -1525,7 +1541,9 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="56" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
@@ -1534,7 +1552,7 @@
       <c r="B33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="8"/>
@@ -1542,7 +1560,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
@@ -1559,10 +1577,10 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="11"/>
@@ -1573,31 +1591,31 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="20"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:A33">
